--- a/Mifos Automation Excels/Client/4385-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-From10April2015-to-11April2016-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4385-ACTGRP-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-ModifyfuturMeet-From10April2015-to-11April2016-Newcreateloan1.xlsx
@@ -260,7 +260,7 @@
     <t>NavigateToLoan</t>
   </si>
   <si>
-    <t>Group4385</t>
+    <t>Groupa4385</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="P3" sqref="P3:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8">
-        <v>42109</v>
+        <v>42097</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1332,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8">
-        <v>42116</v>
+        <v>42105</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8">
-        <v>42123</v>
+        <v>42112</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1421,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>42130</v>
+        <v>42119</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8">
-        <v>42137</v>
+        <v>42126</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>42144</v>
+        <v>42133</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="8">
-        <v>42151</v>
+        <v>42140</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1593,7 +1593,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8">
-        <v>42158</v>
+        <v>42147</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>42165</v>
+        <v>42154</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
